--- a/documents/Knjiga1.xlsx
+++ b/documents/Knjiga1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EV bms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EV bms\bms\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" activeTab="1" xr2:uid="{FD777ECF-A3D6-40EF-A75F-C8F09FCD8952}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" xr2:uid="{FD777ECF-A3D6-40EF-A75F-C8F09FCD8952}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitor" sheetId="2" r:id="rId1"/>
@@ -1044,21 +1044,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1541,6 +1526,21 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1674,7 +1674,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1BCF5CA-5E24-49D4-AF27-4440D602F175}" name="Tablica2" displayName="Tablica2" ref="A2:AL46" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1BCF5CA-5E24-49D4-AF27-4440D602F175}" name="Tablica2" displayName="Tablica2" ref="A2:AL46" totalsRowShown="0" headerRowDxfId="100">
   <autoFilter ref="A2:AL46" xr:uid="{9BEE9C6C-AC43-4153-BD67-B29CE2EC4A71}">
     <filterColumn colId="4">
       <filters>
@@ -1683,121 +1683,121 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="38">
-    <tableColumn id="1" xr3:uid="{67F55402-4665-4DDA-A4FF-ED78E5AD6A1E}" name=" " dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{58083A85-7D72-43A1-B329-13F71CD9D3D8}" name="p" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{2E91048D-24DE-4E6D-9C1B-F107A662FC2C}" name="p2" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{DAC87927-DA81-4745-99C4-940A9457F385}" name="p3" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{D1320D24-FD7F-4045-B4F1-4F2B81532F22}" name="p4" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{84B7622B-38D1-459A-8BAA-174D29E8CF43}" name="p5" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{D5B10013-BEF8-4480-9A4A-E7636D0A9E0A}" name="p6" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{4F9803C8-4D6F-488D-8EBA-59167C45683F}" name="p7" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{B191B50B-421A-4A61-88D5-5E3B52A7D301}" name="p8" dataDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{9B8025D9-634B-49B6-BA80-7CA3F2FDAE72}" name="p9" dataDxfId="91"/>
-    <tableColumn id="11" xr3:uid="{22AE5A7A-505C-4C0D-82EC-8561E21A5D99}" name="p10" dataDxfId="90"/>
-    <tableColumn id="12" xr3:uid="{B54B33C2-0883-4A6E-A862-3C6726F85ED3}" name="p11" dataDxfId="89"/>
-    <tableColumn id="13" xr3:uid="{2B0CC35A-F6A5-407E-8C32-E0AFD6D1287F}" name="p12" dataDxfId="88"/>
-    <tableColumn id="14" xr3:uid="{0764ED3B-CE3B-40CE-8834-EAD34A1584F9}" name="p13" dataDxfId="87"/>
-    <tableColumn id="15" xr3:uid="{C2786AC9-3026-4D2C-8CA0-1EADAA7368CE}" name="p14" dataDxfId="86"/>
-    <tableColumn id="16" xr3:uid="{91649E9A-3D5D-4DA5-A6A5-7BADF38CD051}" name="p15" dataDxfId="85"/>
-    <tableColumn id="17" xr3:uid="{CB1B0785-8BDA-469B-A076-DB6F3CCFEB27}" name="p16" dataDxfId="84"/>
-    <tableColumn id="18" xr3:uid="{B969CB63-6F23-4D5C-8543-FBEA82CE8101}" name="p17" dataDxfId="83"/>
-    <tableColumn id="19" xr3:uid="{02BE6D52-C879-4F24-A244-367885EE75E8}" name="p18" dataDxfId="82"/>
-    <tableColumn id="20" xr3:uid="{D34C0A25-5BE2-41CC-B9CF-76D384E9F992}" name="p19" dataDxfId="81"/>
-    <tableColumn id="21" xr3:uid="{E0ECFCCA-1DD1-4F7E-A6AE-1B87E88C3C46}" name="p20" dataDxfId="80"/>
-    <tableColumn id="22" xr3:uid="{C3693C56-D617-47B2-A160-87A4BA088393}" name="p21" dataDxfId="79"/>
-    <tableColumn id="23" xr3:uid="{0B257421-CB78-4BEB-8AA4-510E2A2A11A9}" name="p22" dataDxfId="78"/>
-    <tableColumn id="24" xr3:uid="{86E9546E-E8AE-4DF1-8B25-873FBB7CA9C9}" name="p23" dataDxfId="77"/>
-    <tableColumn id="25" xr3:uid="{F1D96F1C-3124-419B-95A3-FA9FA14A2356}" name="p24" dataDxfId="76"/>
-    <tableColumn id="26" xr3:uid="{5DDA63BF-213D-43F0-8FE0-CB668B76B519}" name="p25" dataDxfId="75"/>
-    <tableColumn id="27" xr3:uid="{042221E4-723C-46C7-80D8-CA4CA098433B}" name="p26" dataDxfId="74"/>
-    <tableColumn id="28" xr3:uid="{3F2AE80C-8639-456B-A675-ED624E5F9CC9}" name="p27" dataDxfId="73"/>
-    <tableColumn id="29" xr3:uid="{6EED310D-4C14-4217-9694-82F4B03F1C6C}" name="p28" dataDxfId="72"/>
-    <tableColumn id="30" xr3:uid="{4BC4DC1C-8C66-4F43-9618-4CFB76FD0C90}" name="p29" dataDxfId="71"/>
-    <tableColumn id="31" xr3:uid="{E89FF94C-AD57-486A-AF6F-EE3214FAD374}" name="p30" dataDxfId="70"/>
-    <tableColumn id="32" xr3:uid="{3211B1B6-36AE-4908-8EA8-3F027E1FF146}" name="p31" dataDxfId="69"/>
-    <tableColumn id="33" xr3:uid="{DF3C617D-046A-4A16-B9C1-A28637028F9A}" name="p32" dataDxfId="68"/>
-    <tableColumn id="34" xr3:uid="{4F414666-2553-428D-8708-6DEE04FBA089}" name="p33" dataDxfId="67"/>
-    <tableColumn id="35" xr3:uid="{EB102201-11AE-40F8-8A78-167D7C666DAF}" name="p34" dataDxfId="66"/>
-    <tableColumn id="36" xr3:uid="{E4C51E53-2EB0-452A-A300-689B2308D091}" name="p35" dataDxfId="65"/>
-    <tableColumn id="37" xr3:uid="{C8315DA7-5FC0-4F83-9C6B-3684138E4EEC}" name="p36" dataDxfId="64"/>
-    <tableColumn id="38" xr3:uid="{AAC09F8C-5919-478C-BF90-4B0069FD6855}" name="p37" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{67F55402-4665-4DDA-A4FF-ED78E5AD6A1E}" name=" " dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{58083A85-7D72-43A1-B329-13F71CD9D3D8}" name="p" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{2E91048D-24DE-4E6D-9C1B-F107A662FC2C}" name="p2" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{DAC87927-DA81-4745-99C4-940A9457F385}" name="p3" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{D1320D24-FD7F-4045-B4F1-4F2B81532F22}" name="p4" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{84B7622B-38D1-459A-8BAA-174D29E8CF43}" name="p5" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{D5B10013-BEF8-4480-9A4A-E7636D0A9E0A}" name="p6" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{4F9803C8-4D6F-488D-8EBA-59167C45683F}" name="p7" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{B191B50B-421A-4A61-88D5-5E3B52A7D301}" name="p8" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{9B8025D9-634B-49B6-BA80-7CA3F2FDAE72}" name="p9" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{22AE5A7A-505C-4C0D-82EC-8561E21A5D99}" name="p10" dataDxfId="89"/>
+    <tableColumn id="12" xr3:uid="{B54B33C2-0883-4A6E-A862-3C6726F85ED3}" name="p11" dataDxfId="88"/>
+    <tableColumn id="13" xr3:uid="{2B0CC35A-F6A5-407E-8C32-E0AFD6D1287F}" name="p12" dataDxfId="87"/>
+    <tableColumn id="14" xr3:uid="{0764ED3B-CE3B-40CE-8834-EAD34A1584F9}" name="p13" dataDxfId="86"/>
+    <tableColumn id="15" xr3:uid="{C2786AC9-3026-4D2C-8CA0-1EADAA7368CE}" name="p14" dataDxfId="85"/>
+    <tableColumn id="16" xr3:uid="{91649E9A-3D5D-4DA5-A6A5-7BADF38CD051}" name="p15" dataDxfId="84"/>
+    <tableColumn id="17" xr3:uid="{CB1B0785-8BDA-469B-A076-DB6F3CCFEB27}" name="p16" dataDxfId="83"/>
+    <tableColumn id="18" xr3:uid="{B969CB63-6F23-4D5C-8543-FBEA82CE8101}" name="p17" dataDxfId="82"/>
+    <tableColumn id="19" xr3:uid="{02BE6D52-C879-4F24-A244-367885EE75E8}" name="p18" dataDxfId="81"/>
+    <tableColumn id="20" xr3:uid="{D34C0A25-5BE2-41CC-B9CF-76D384E9F992}" name="p19" dataDxfId="80"/>
+    <tableColumn id="21" xr3:uid="{E0ECFCCA-1DD1-4F7E-A6AE-1B87E88C3C46}" name="p20" dataDxfId="79"/>
+    <tableColumn id="22" xr3:uid="{C3693C56-D617-47B2-A160-87A4BA088393}" name="p21" dataDxfId="78"/>
+    <tableColumn id="23" xr3:uid="{0B257421-CB78-4BEB-8AA4-510E2A2A11A9}" name="p22" dataDxfId="77"/>
+    <tableColumn id="24" xr3:uid="{86E9546E-E8AE-4DF1-8B25-873FBB7CA9C9}" name="p23" dataDxfId="76"/>
+    <tableColumn id="25" xr3:uid="{F1D96F1C-3124-419B-95A3-FA9FA14A2356}" name="p24" dataDxfId="75"/>
+    <tableColumn id="26" xr3:uid="{5DDA63BF-213D-43F0-8FE0-CB668B76B519}" name="p25" dataDxfId="74"/>
+    <tableColumn id="27" xr3:uid="{042221E4-723C-46C7-80D8-CA4CA098433B}" name="p26" dataDxfId="73"/>
+    <tableColumn id="28" xr3:uid="{3F2AE80C-8639-456B-A675-ED624E5F9CC9}" name="p27" dataDxfId="72"/>
+    <tableColumn id="29" xr3:uid="{6EED310D-4C14-4217-9694-82F4B03F1C6C}" name="p28" dataDxfId="71"/>
+    <tableColumn id="30" xr3:uid="{4BC4DC1C-8C66-4F43-9618-4CFB76FD0C90}" name="p29" dataDxfId="70"/>
+    <tableColumn id="31" xr3:uid="{E89FF94C-AD57-486A-AF6F-EE3214FAD374}" name="p30" dataDxfId="69"/>
+    <tableColumn id="32" xr3:uid="{3211B1B6-36AE-4908-8EA8-3F027E1FF146}" name="p31" dataDxfId="68"/>
+    <tableColumn id="33" xr3:uid="{DF3C617D-046A-4A16-B9C1-A28637028F9A}" name="p32" dataDxfId="67"/>
+    <tableColumn id="34" xr3:uid="{4F414666-2553-428D-8708-6DEE04FBA089}" name="p33" dataDxfId="66"/>
+    <tableColumn id="35" xr3:uid="{EB102201-11AE-40F8-8A78-167D7C666DAF}" name="p34" dataDxfId="65"/>
+    <tableColumn id="36" xr3:uid="{E4C51E53-2EB0-452A-A300-689B2308D091}" name="p35" dataDxfId="64"/>
+    <tableColumn id="37" xr3:uid="{C8315DA7-5FC0-4F83-9C6B-3684138E4EEC}" name="p36" dataDxfId="63"/>
+    <tableColumn id="38" xr3:uid="{AAC09F8C-5919-478C-BF90-4B0069FD6855}" name="p37" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09BC3876-F8F0-4E8B-ABD7-298D169011F9}" name="Tablica3" displayName="Tablica3" ref="A1:AD109" totalsRowShown="0" headerRowDxfId="61" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09BC3876-F8F0-4E8B-ABD7-298D169011F9}" name="Tablica3" displayName="Tablica3" ref="A1:AD109" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A1:AD109" xr:uid="{01AD7F0F-5DBC-4B2B-AC89-1C4F5190E6E0}"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{51026E03-5277-4026-906F-4E33541BABF1}" name=" " dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{5CF4C2D1-A2B0-4C37-997C-0DE76B6FF41F}" name="p" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{408915EC-DB48-4A31-ABCD-6C9288319F3B}" name="p2" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{687BA2E2-FAA2-4B3A-8571-F49099093958}" name="p3" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{C9CFD148-31DA-4288-853B-24932D101B36}" name="p4" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{77EC15B4-DD34-4C42-B1A8-AEC259B990D8}" name="p5" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{F18F1766-C0CC-483C-A6BC-4C26BC2B00BF}" name="p6" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{11FE0BBF-AF20-43BB-A332-E6E5E70EDD74}" name="p7" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{CD4B4FCC-3F5D-48B5-B487-03E8816E05E1}" name="p8" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{099A4779-49E9-4F7C-85BA-B3B8AF59E7AE}" name="p9" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{431DD803-1566-4C1A-9F67-5C8D932738AC}" name="p10" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{548B283D-52F4-462F-8091-C4B610655B85}" name="p11" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{D2324C9B-5773-4165-8CAC-F90091625A4C}" name="p12" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{84684F68-DCC6-4A3F-99EC-AFD75EC08104}" name="p13" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{982CC72B-DC15-478E-8735-ADEA3AF28A96}" name="p14" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{CE0BBC76-82E6-464C-BA5F-763D771201CB}" name="p15" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{B7128313-1CE4-46DD-A50D-685C525805FF}" name="p16" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{75180C82-B249-412D-9642-DC7E43C35431}" name="p17" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{C5782AB4-7094-41B4-91CF-AE5BC19D9DF0}" name="p18" dataDxfId="42"/>
-    <tableColumn id="20" xr3:uid="{4F811247-29E2-450B-AAAE-D60556E5725B}" name="p19" dataDxfId="41"/>
-    <tableColumn id="21" xr3:uid="{6F34CE77-63DE-4D3B-91A3-D19682394453}" name="p20" dataDxfId="40"/>
-    <tableColumn id="22" xr3:uid="{8A1BE6BA-A6B6-4CA0-A2F1-F5A26A00D74C}" name="p21" dataDxfId="39"/>
-    <tableColumn id="23" xr3:uid="{8BE7B1E4-BF41-40B1-A5C7-853E10FC12BA}" name="p22" dataDxfId="38"/>
-    <tableColumn id="24" xr3:uid="{439E987D-6464-4640-8B78-99448373F892}" name="p23" dataDxfId="37"/>
-    <tableColumn id="25" xr3:uid="{AF8A995F-F92D-468A-A874-FA1D957E886C}" name="p24" dataDxfId="36"/>
-    <tableColumn id="26" xr3:uid="{DB50BFC1-5DAB-4BC7-8655-1061E4A3CFF9}" name="p25" dataDxfId="35"/>
-    <tableColumn id="27" xr3:uid="{58508A82-2E64-4A26-89DC-F415FE4ED983}" name="p26" dataDxfId="34"/>
-    <tableColumn id="28" xr3:uid="{BE03808B-90D5-47B5-8345-48454F5A72D6}" name="p27" dataDxfId="33"/>
-    <tableColumn id="29" xr3:uid="{81A848AB-67B6-45B4-8965-68735D318ACD}" name="p28" dataDxfId="32"/>
-    <tableColumn id="30" xr3:uid="{1DDE0E18-216C-48B3-8FA0-D7F5E63508C4}" name="p29" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{51026E03-5277-4026-906F-4E33541BABF1}" name=" " dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{5CF4C2D1-A2B0-4C37-997C-0DE76B6FF41F}" name="p" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{408915EC-DB48-4A31-ABCD-6C9288319F3B}" name="p2" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{687BA2E2-FAA2-4B3A-8571-F49099093958}" name="p3" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{C9CFD148-31DA-4288-853B-24932D101B36}" name="p4" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{77EC15B4-DD34-4C42-B1A8-AEC259B990D8}" name="p5" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{F18F1766-C0CC-483C-A6BC-4C26BC2B00BF}" name="p6" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{11FE0BBF-AF20-43BB-A332-E6E5E70EDD74}" name="p7" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{CD4B4FCC-3F5D-48B5-B487-03E8816E05E1}" name="p8" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{099A4779-49E9-4F7C-85BA-B3B8AF59E7AE}" name="p9" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{431DD803-1566-4C1A-9F67-5C8D932738AC}" name="p10" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{548B283D-52F4-462F-8091-C4B610655B85}" name="p11" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{D2324C9B-5773-4165-8CAC-F90091625A4C}" name="p12" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{84684F68-DCC6-4A3F-99EC-AFD75EC08104}" name="p13" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{982CC72B-DC15-478E-8735-ADEA3AF28A96}" name="p14" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{CE0BBC76-82E6-464C-BA5F-763D771201CB}" name="p15" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{B7128313-1CE4-46DD-A50D-685C525805FF}" name="p16" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{75180C82-B249-412D-9642-DC7E43C35431}" name="p17" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{C5782AB4-7094-41B4-91CF-AE5BC19D9DF0}" name="p18" dataDxfId="41"/>
+    <tableColumn id="20" xr3:uid="{4F811247-29E2-450B-AAAE-D60556E5725B}" name="p19" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{6F34CE77-63DE-4D3B-91A3-D19682394453}" name="p20" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{8A1BE6BA-A6B6-4CA0-A2F1-F5A26A00D74C}" name="p21" dataDxfId="38"/>
+    <tableColumn id="23" xr3:uid="{8BE7B1E4-BF41-40B1-A5C7-853E10FC12BA}" name="p22" dataDxfId="37"/>
+    <tableColumn id="24" xr3:uid="{439E987D-6464-4640-8B78-99448373F892}" name="p23" dataDxfId="36"/>
+    <tableColumn id="25" xr3:uid="{AF8A995F-F92D-468A-A874-FA1D957E886C}" name="p24" dataDxfId="35"/>
+    <tableColumn id="26" xr3:uid="{DB50BFC1-5DAB-4BC7-8655-1061E4A3CFF9}" name="p25" dataDxfId="34"/>
+    <tableColumn id="27" xr3:uid="{58508A82-2E64-4A26-89DC-F415FE4ED983}" name="p26" dataDxfId="33"/>
+    <tableColumn id="28" xr3:uid="{BE03808B-90D5-47B5-8345-48454F5A72D6}" name="p27" dataDxfId="32"/>
+    <tableColumn id="29" xr3:uid="{81A848AB-67B6-45B4-8965-68735D318ACD}" name="p28" dataDxfId="31"/>
+    <tableColumn id="30" xr3:uid="{1DDE0E18-216C-48B3-8FA0-D7F5E63508C4}" name="p29" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49E19E67-A0E2-454B-9C67-807B13B75C22}" name="Tablica4" displayName="Tablica4" ref="A1:AC108" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49E19E67-A0E2-454B-9C67-807B13B75C22}" name="Tablica4" displayName="Tablica4" ref="A1:AC108" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:AC108" xr:uid="{D40637FE-43C6-40B3-AFC3-2B3F2C1507BD}"/>
   <tableColumns count="29">
-    <tableColumn id="1" xr3:uid="{C50A856A-2993-4AF1-BD03-4A228780FE2C}" name=" " dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{64146C42-05B5-4F93-853A-782C18D0A3D3}" name="p" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{33727E22-C374-46EC-A4A0-03BCED39727C}" name="p2" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{21D652C4-31C7-4FE8-A7B8-514AECA2038C}" name="p3" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{8B510E95-8E67-4DAA-A394-9E5A760BA7EF}" name="p4" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{7AC18994-0A88-4232-A32A-9B80F0374AE0}" name="p5" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{82279B89-1E0C-4077-9B0E-6534B77AFF18}" name="p6" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{66F6C7BD-7A7C-4036-AF52-D478AFC31EBF}" name="p7" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{1E8381D1-E1C5-45AA-B592-E5806823F69A}" name="p8" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{7D07E40C-FB32-4CE7-9D0C-DC97A66FD882}" name="p9" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{3B659A37-A1F9-48A8-8BAB-8B4C493A4370}" name="p10" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{3479683B-03A4-4FE0-BD3D-3B62FD15D193}" name="p11" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{F4CDFB1E-C29C-4835-A3D4-0015D588676F}" name="p12" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{A320A7DF-0C02-4F1B-B7AC-00D899E31F14}" name="p13" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{DCC85C32-2229-48C9-9A7C-D020334D61FD}" name="p14" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{C396F181-F364-4207-8E9F-477298D3CA06}" name="p15" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{09E8EDCE-831F-448A-911B-F50E62368E36}" name="p16" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{09757489-AD40-451E-897B-189C884515B9}" name="p17" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{C472BC32-CBA2-423E-B5C1-1B3F633DFBA7}" name="p18" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{30AA3942-BA8A-404A-AFE3-30B207143FAC}" name="p19" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{A8C437CB-5ACC-4F0B-8964-DFC8B34E8FA5}" name="p20" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{DC42F902-2D36-43AD-B533-F31EC01E548A}" name="p21" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{193C5920-6D47-4676-972C-86CA624519E7}" name="p22" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{95CEA407-0390-4680-BD6B-A269E52AC93D}" name="p23" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{3F6D3F34-704B-4239-B3A5-F249B27DBFE0}" name="p24" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{AF37A2F1-D687-4FDE-AFB1-C0A69BB63D65}" name="p25" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{587B25C4-8637-48C9-B727-825CD27B2F5D}" name="p26" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{8FFF3B6C-08D1-41DE-8791-0AA49E2A90B8}" name="p27" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{AA98A4AB-3850-4CDC-B23E-A3B3E3BC7F93}" name="p28" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C50A856A-2993-4AF1-BD03-4A228780FE2C}" name=" " dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{64146C42-05B5-4F93-853A-782C18D0A3D3}" name="p" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{33727E22-C374-46EC-A4A0-03BCED39727C}" name="p2" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{21D652C4-31C7-4FE8-A7B8-514AECA2038C}" name="p3" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{8B510E95-8E67-4DAA-A394-9E5A760BA7EF}" name="p4" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{7AC18994-0A88-4232-A32A-9B80F0374AE0}" name="p5" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{82279B89-1E0C-4077-9B0E-6534B77AFF18}" name="p6" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{66F6C7BD-7A7C-4036-AF52-D478AFC31EBF}" name="p7" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{1E8381D1-E1C5-45AA-B592-E5806823F69A}" name="p8" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{7D07E40C-FB32-4CE7-9D0C-DC97A66FD882}" name="p9" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{3B659A37-A1F9-48A8-8BAB-8B4C493A4370}" name="p10" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{3479683B-03A4-4FE0-BD3D-3B62FD15D193}" name="p11" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{F4CDFB1E-C29C-4835-A3D4-0015D588676F}" name="p12" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{A320A7DF-0C02-4F1B-B7AC-00D899E31F14}" name="p13" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{DCC85C32-2229-48C9-9A7C-D020334D61FD}" name="p14" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{C396F181-F364-4207-8E9F-477298D3CA06}" name="p15" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{09E8EDCE-831F-448A-911B-F50E62368E36}" name="p16" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{09757489-AD40-451E-897B-189C884515B9}" name="p17" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{C472BC32-CBA2-423E-B5C1-1B3F633DFBA7}" name="p18" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{30AA3942-BA8A-404A-AFE3-30B207143FAC}" name="p19" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{A8C437CB-5ACC-4F0B-8964-DFC8B34E8FA5}" name="p20" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{DC42F902-2D36-43AD-B533-F31EC01E548A}" name="p21" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{193C5920-6D47-4676-972C-86CA624519E7}" name="p22" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{95CEA407-0390-4680-BD6B-A269E52AC93D}" name="p23" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{3F6D3F34-704B-4239-B3A5-F249B27DBFE0}" name="p24" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{AF37A2F1-D687-4FDE-AFB1-C0A69BB63D65}" name="p25" dataDxfId="3"/>
+    <tableColumn id="27" xr3:uid="{587B25C4-8637-48C9-B727-825CD27B2F5D}" name="p26" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{8FFF3B6C-08D1-41DE-8791-0AA49E2A90B8}" name="p27" dataDxfId="1"/>
+    <tableColumn id="29" xr3:uid="{AA98A4AB-3850-4CDC-B23E-A3B3E3BC7F93}" name="p28" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C272B05-D57F-4CBA-AC0C-F713C5609817}">
   <dimension ref="A2:AL55"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK49" sqref="AK49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5148,7 +5148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24D456A-8D3D-4D65-B6F9-B9293E9283C5}">
   <dimension ref="A1:AD114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
